--- a/readme/Benchmark.xlsx
+++ b/readme/Benchmark.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t xml:space="preserve">*10^7</t>
   </si>
@@ -58,13 +58,16 @@
     <t xml:space="preserve">среднее</t>
   </si>
   <si>
-    <t xml:space="preserve">случ погрешность</t>
+    <t xml:space="preserve">среднекв погрешность</t>
   </si>
   <si>
     <t xml:space="preserve">сист погрешность</t>
   </si>
   <si>
     <t xml:space="preserve">полн погрешность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">яЦ</t>
   </si>
 </sst>
 </file>
@@ -1245,11 +1248,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66900170"/>
-        <c:axId val="39521591"/>
+        <c:axId val="37730454"/>
+        <c:axId val="94518223"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66900170"/>
+        <c:axId val="37730454"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,12 +1311,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39521591"/>
+        <c:crossAx val="94518223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39521591"/>
+        <c:axId val="94518223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1384,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66900170"/>
+        <c:crossAx val="37730454"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2628,11 +2631,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="80584242"/>
-        <c:axId val="93862916"/>
+        <c:axId val="36602658"/>
+        <c:axId val="24794541"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80584242"/>
+        <c:axId val="36602658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,12 +2694,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93862916"/>
+        <c:crossAx val="24794541"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93862916"/>
+        <c:axId val="24794541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,7 +2767,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80584242"/>
+        <c:crossAx val="36602658"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3821,11 +3824,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48687332"/>
-        <c:axId val="85179138"/>
+        <c:axId val="29041281"/>
+        <c:axId val="30685973"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48687332"/>
+        <c:axId val="29041281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,12 +3887,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85179138"/>
+        <c:crossAx val="30685973"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85179138"/>
+        <c:axId val="30685973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +3960,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48687332"/>
+        <c:crossAx val="29041281"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4059,7 +4062,40 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:uFillTx/>
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
@@ -4933,11 +4969,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51498852"/>
-        <c:axId val="34248330"/>
+        <c:axId val="58703826"/>
+        <c:axId val="92155779"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51498852"/>
+        <c:axId val="58703826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4996,12 +5032,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34248330"/>
+        <c:crossAx val="92155779"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34248330"/>
+        <c:axId val="92155779"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5069,7 +5105,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51498852"/>
+        <c:crossAx val="58703826"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5119,6 +5155,395 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0604725295330958"/>
+          <c:y val="0.0466162906989665"/>
+          <c:w val="0.906369148071755"/>
+          <c:h val="0.91576841871319"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>func0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>func0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37.3065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>func2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>func2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.0385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>func1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>func1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="50702547"/>
+        <c:axId val="8793681"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50702547"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8793681"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8793681"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50702547"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:uFillTx/>
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5130,7 +5555,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296640</xdr:colOff>
+      <xdr:colOff>33840</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
@@ -5160,7 +5585,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>416880</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
@@ -5190,7 +5615,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:colOff>584640</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
@@ -5200,7 +5625,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9228240" y="9197640"/>
+        <a:off x="9491400" y="9197640"/>
         <a:ext cx="7949160" cy="4480560"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5230,12 +5655,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9359280" y="14840640"/>
+        <a:off x="9622080" y="14840640"/>
         <a:ext cx="7502040" cy="3767400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>64080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="14481720" y="2438280"/>
+        <a:ext cx="5758920" cy="3240360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5431,15 +5886,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:Q98"/>
+  <dimension ref="B1:W98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="51" zoomScaleNormal="51" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W96" activeCellId="0" sqref="W96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I7" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S22" activeCellId="0" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -7597,6 +8052,11 @@
       <c r="Q53" s="0" t="n">
         <f aca="false">(Q23 - Q$25)^2</f>
         <v>6.24999999999973E-006</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W96" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
